--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Lgi3</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Lgi3</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +543,10 @@
         <v>4.607313</v>
       </c>
       <c r="I2">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="N2">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="O2">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="P2">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="Q2">
-        <v>0.2224630843576667</v>
+        <v>0.254549435937</v>
       </c>
       <c r="R2">
-        <v>2.002167759219</v>
+        <v>2.290944923433</v>
       </c>
       <c r="S2">
-        <v>0.00672939638314816</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="T2">
-        <v>0.00672939638314816</v>
+        <v>0.00809578589499544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>4.607313</v>
       </c>
       <c r="I3">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>43.483467</v>
       </c>
       <c r="O3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="P3">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="Q3">
         <v>22.26021586601901</v>
@@ -635,10 +635,10 @@
         <v>200.341942794171</v>
       </c>
       <c r="S3">
-        <v>0.6733603310832776</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="T3">
-        <v>0.6733603310832776</v>
+        <v>0.7079722685862583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,10 +667,10 @@
         <v>4.607313</v>
       </c>
       <c r="I4">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="N4">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="O4">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="P4">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="Q4">
-        <v>6.981587834045668</v>
+        <v>8.666170436632667</v>
       </c>
       <c r="R4">
-        <v>62.83429050641101</v>
+        <v>77.99553392969401</v>
       </c>
       <c r="S4">
-        <v>0.2111895196217034</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="T4">
-        <v>0.2111895196217034</v>
+        <v>0.2756221404547972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,288 +729,40 @@
         <v>4.607313</v>
       </c>
       <c r="I5">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8955152254457543</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="N5">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="O5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="P5">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="Q5">
-        <v>0.140034671322</v>
+        <v>0.2612786725353334</v>
       </c>
       <c r="R5">
-        <v>1.260312041898</v>
+        <v>2.351508052818</v>
       </c>
       <c r="S5">
-        <v>0.004235978357625123</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="T5">
-        <v>0.004235978357625123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.179187</v>
-      </c>
-      <c r="H6">
-        <v>0.537561</v>
-      </c>
-      <c r="I6">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="J6">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.1448543333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.434563</v>
-      </c>
-      <c r="O6">
-        <v>0.007514552731137001</v>
-      </c>
-      <c r="P6">
-        <v>0.007514552731137001</v>
-      </c>
-      <c r="Q6">
-        <v>0.025956013427</v>
-      </c>
-      <c r="R6">
-        <v>0.233604120843</v>
-      </c>
-      <c r="S6">
-        <v>0.0007851563479888403</v>
-      </c>
-      <c r="T6">
-        <v>0.0007851563479888403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.179187</v>
-      </c>
-      <c r="H7">
-        <v>0.537561</v>
-      </c>
-      <c r="I7">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="J7">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>14.494489</v>
-      </c>
-      <c r="N7">
-        <v>43.483467</v>
-      </c>
-      <c r="O7">
-        <v>0.7519250504625467</v>
-      </c>
-      <c r="P7">
-        <v>0.7519250504625467</v>
-      </c>
-      <c r="Q7">
-        <v>2.597224000443</v>
-      </c>
-      <c r="R7">
-        <v>23.375016003987</v>
-      </c>
-      <c r="S7">
-        <v>0.07856471937926895</v>
-      </c>
-      <c r="T7">
-        <v>0.07856471937926895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.179187</v>
-      </c>
-      <c r="H8">
-        <v>0.537561</v>
-      </c>
-      <c r="I8">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="J8">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>4.545982333333334</v>
-      </c>
-      <c r="N8">
-        <v>13.637947</v>
-      </c>
-      <c r="O8">
-        <v>0.235830183140193</v>
-      </c>
-      <c r="P8">
-        <v>0.2358301831401929</v>
-      </c>
-      <c r="Q8">
-        <v>0.814580936363</v>
-      </c>
-      <c r="R8">
-        <v>7.331228427267</v>
-      </c>
-      <c r="S8">
-        <v>0.02464066351848952</v>
-      </c>
-      <c r="T8">
-        <v>0.02464066351848952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.179187</v>
-      </c>
-      <c r="H9">
-        <v>0.537561</v>
-      </c>
-      <c r="I9">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="J9">
-        <v>0.1044847745542456</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.09118199999999999</v>
-      </c>
-      <c r="N9">
-        <v>0.273546</v>
-      </c>
-      <c r="O9">
-        <v>0.004730213666123442</v>
-      </c>
-      <c r="P9">
-        <v>0.004730213666123442</v>
-      </c>
-      <c r="Q9">
-        <v>0.016338629034</v>
-      </c>
-      <c r="R9">
-        <v>0.147047661306</v>
-      </c>
-      <c r="S9">
-        <v>0.0004942353084983195</v>
-      </c>
-      <c r="T9">
-        <v>0.0004942353084983195</v>
+        <v>0.008309805063949155</v>
       </c>
     </row>
   </sheetData>
